--- a/ABSoutput.xlsx
+++ b/ABSoutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -28,76 +28,13 @@
     <t>Principle</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
     <t>Sum</t>
   </si>
   <si>
-    <t>interest_day</t>
-  </si>
-  <si>
     <t>万信-基础设施建设信托基金019号001</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>fixDate</t>
-  </si>
-  <si>
-    <t>Unnamed: 26</t>
-  </si>
-  <si>
-    <t>Unnamed: 27</t>
-  </si>
-  <si>
-    <t>Unnamed: 28</t>
-  </si>
-  <si>
-    <t>Unnamed: 29</t>
-  </si>
-  <si>
-    <t>Unnamed: 30</t>
-  </si>
-  <si>
-    <t>Unnamed: 31</t>
-  </si>
-  <si>
-    <t>Unnamed: 32</t>
-  </si>
-  <si>
-    <t>Unnamed: 33</t>
-  </si>
-  <si>
-    <t>Unnamed: 34</t>
-  </si>
-  <si>
-    <t>Unnamed: 35</t>
-  </si>
-  <si>
-    <t>Unnamed: 36</t>
-  </si>
-  <si>
-    <t>Unnamed: 37</t>
   </si>
   <si>
     <t>万信-基础设施建设信托基金020号001</t>
@@ -107,9 +44,6 @@
   </si>
   <si>
     <t>万信-基础设施建设信托基金023号002</t>
-  </si>
-  <si>
-    <t>Unnamed: 38</t>
   </si>
 </sst>
 </file>
@@ -461,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,19 +422,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>42005</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0.102</v>
@@ -514,19 +445,16 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>42095</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>0.102</v>
@@ -535,24 +463,21 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>133298.6301369863</v>
       </c>
       <c r="G3" t="n">
         <v>133298.6301369863</v>
       </c>
-      <c r="H3" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>42186</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>0.102</v>
@@ -561,24 +486,21 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G4" t="n">
         <v>134779.7260273973</v>
       </c>
-      <c r="H4" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>42278</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>0.102</v>
@@ -587,24 +509,21 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G5" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H5" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>42370</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>0.102</v>
@@ -613,24 +532,21 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G6" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H6" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>42461</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0.102</v>
@@ -639,24 +555,21 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G7" t="n">
         <v>134779.7260273973</v>
       </c>
-      <c r="H7" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>42552</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0.102</v>
@@ -665,24 +578,21 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G8" t="n">
         <v>134779.7260273973</v>
       </c>
-      <c r="H8" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0.102</v>
@@ -691,24 +601,21 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G9" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H9" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0.102</v>
@@ -722,19 +629,16 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>42736</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0.102</v>
@@ -743,24 +647,21 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G11" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H11" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0.102</v>
@@ -769,24 +670,21 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>90</v>
+        <v>133298.6301369863</v>
       </c>
       <c r="G12" t="n">
         <v>133298.6301369863</v>
       </c>
-      <c r="H12" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>42917</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>0.102</v>
@@ -795,24 +693,21 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G13" t="n">
         <v>134779.7260273973</v>
       </c>
-      <c r="H13" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>43009</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0.102</v>
@@ -821,24 +716,21 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G14" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H14" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>43101</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>0.102</v>
@@ -847,24 +739,21 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G15" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H15" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>43191</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>0.102</v>
@@ -873,24 +762,21 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>133298.6301369863</v>
       </c>
       <c r="G16" t="n">
         <v>133298.6301369863</v>
       </c>
-      <c r="H16" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>43282</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0.102</v>
@@ -899,24 +785,21 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G17" t="n">
         <v>134779.7260273973</v>
       </c>
-      <c r="H17" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>43374</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0.102</v>
@@ -925,24 +808,21 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G18" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H18" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>43466</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0.102</v>
@@ -951,24 +831,21 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>92</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G19" t="n">
         <v>136260.8219178082</v>
       </c>
-      <c r="H19" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>43556</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>0.102</v>
@@ -977,24 +854,21 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>133298.6301369863</v>
       </c>
       <c r="G20" t="n">
         <v>133298.6301369863</v>
       </c>
-      <c r="H20" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>43647</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0.102</v>
@@ -1003,24 +877,21 @@
         <v>5300000</v>
       </c>
       <c r="F21" t="n">
-        <v>91</v>
+        <v>134779.7260273973</v>
       </c>
       <c r="G21" t="n">
-        <v>134779.7260273973</v>
-      </c>
-      <c r="H21" t="n">
         <v>5434779.726027397</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>41640</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>0.103</v>
@@ -1034,19 +905,16 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>41821</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>0.103</v>
@@ -1055,24 +923,21 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>181</v>
+        <v>837658.0821917808</v>
       </c>
       <c r="G23" t="n">
         <v>837658.0821917808</v>
       </c>
-      <c r="H23" t="n">
-        <v>837658.0821917808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>42005</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>0.103</v>
@@ -1081,24 +946,21 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>184</v>
+        <v>851541.9178082192</v>
       </c>
       <c r="G24" t="n">
         <v>851541.9178082192</v>
       </c>
-      <c r="H24" t="n">
-        <v>851541.9178082192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>42186</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>0.103</v>
@@ -1107,24 +969,21 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>181</v>
+        <v>837658.0821917808</v>
       </c>
       <c r="G25" t="n">
         <v>837658.0821917808</v>
       </c>
-      <c r="H25" t="n">
-        <v>837658.0821917808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>42370</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
         <v>0.103</v>
@@ -1133,24 +992,21 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>184</v>
+        <v>851541.9178082192</v>
       </c>
       <c r="G26" t="n">
         <v>851541.9178082192</v>
       </c>
-      <c r="H26" t="n">
-        <v>851541.9178082192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>42552</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>0.103</v>
@@ -1159,24 +1015,21 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>182</v>
+        <v>842286.0273972603</v>
       </c>
       <c r="G27" t="n">
         <v>842286.0273972603</v>
       </c>
-      <c r="H27" t="n">
-        <v>842286.0273972603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
         <v>0.103</v>
@@ -1185,24 +1038,21 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>425770.9589041096</v>
       </c>
       <c r="G28" t="n">
         <v>425770.9589041096</v>
       </c>
-      <c r="H28" t="n">
-        <v>425770.9589041096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>42736</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>0.103</v>
@@ -1211,24 +1061,21 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>425770.9589041096</v>
       </c>
       <c r="G29" t="n">
         <v>425770.9589041096</v>
       </c>
-      <c r="H29" t="n">
-        <v>425770.9589041096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>42917</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>0.103</v>
@@ -1237,24 +1084,21 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>181</v>
+        <v>837658.0821917808</v>
       </c>
       <c r="G30" t="n">
         <v>837658.0821917808</v>
       </c>
-      <c r="H30" t="n">
-        <v>837658.0821917808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>43101</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>0.103</v>
@@ -1263,24 +1107,21 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>184</v>
+        <v>851541.9178082192</v>
       </c>
       <c r="G31" t="n">
         <v>851541.9178082192</v>
       </c>
-      <c r="H31" t="n">
-        <v>851541.9178082192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>43282</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>0.103</v>
@@ -1289,24 +1130,21 @@
         <v>16400000</v>
       </c>
       <c r="F32" t="n">
-        <v>181</v>
+        <v>837658.0821917808</v>
       </c>
       <c r="G32" t="n">
-        <v>837658.0821917808</v>
-      </c>
-      <c r="H32" t="n">
         <v>17237658.08219178</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>40179</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>0.1</v>
@@ -1320,19 +1158,16 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>40544</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>0.1</v>
@@ -1341,24 +1176,21 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G34" t="n">
         <v>2000000</v>
       </c>
-      <c r="H34" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>40909</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
         <v>0.1</v>
@@ -1367,24 +1199,21 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G35" t="n">
         <v>2000000</v>
       </c>
-      <c r="H35" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>41275</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
         <v>0.1</v>
@@ -1393,24 +1222,21 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>366</v>
+        <v>2005479.452054794</v>
       </c>
       <c r="G36" t="n">
         <v>2005479.452054794</v>
       </c>
-      <c r="H36" t="n">
-        <v>2005479.452054794</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>41640</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>0.1</v>
@@ -1419,24 +1245,21 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G37" t="n">
         <v>2000000</v>
       </c>
-      <c r="H37" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>42005</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
         <v>0.1</v>
@@ -1445,24 +1268,21 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G38" t="n">
         <v>2000000</v>
       </c>
-      <c r="H38" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>42370</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>0.1</v>
@@ -1471,24 +1291,21 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G39" t="n">
         <v>2000000</v>
       </c>
-      <c r="H39" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
         <v>0.1</v>
@@ -1497,24 +1314,21 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>274</v>
+        <v>1501369.863013699</v>
       </c>
       <c r="G40" t="n">
         <v>1501369.863013699</v>
       </c>
-      <c r="H40" t="n">
-        <v>1501369.863013699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>42736</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D41" t="n">
         <v>0.1</v>
@@ -1523,24 +1337,21 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92</v>
+        <v>504109.5890410959</v>
       </c>
       <c r="G41" t="n">
         <v>504109.5890410959</v>
       </c>
-      <c r="H41" t="n">
-        <v>504109.5890410959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>43101</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
         <v>0.1</v>
@@ -1549,24 +1360,21 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G42" t="n">
         <v>2000000</v>
       </c>
-      <c r="H42" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>43466</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
         <v>0.1</v>
@@ -1575,24 +1383,21 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G43" t="n">
         <v>2000000</v>
       </c>
-      <c r="H43" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>43831</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>0.1</v>
@@ -1601,24 +1406,21 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G44" t="n">
         <v>2000000</v>
       </c>
-      <c r="H44" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>44197</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
         <v>0.1</v>
@@ -1627,24 +1429,21 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>366</v>
+        <v>2005479.452054794</v>
       </c>
       <c r="G45" t="n">
         <v>2005479.452054794</v>
       </c>
-      <c r="H45" t="n">
-        <v>2005479.452054794</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>44562</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
         <v>0.1</v>
@@ -1653,24 +1452,21 @@
         <v>20000000</v>
       </c>
       <c r="F46" t="n">
-        <v>365</v>
+        <v>2000000</v>
       </c>
       <c r="G46" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="H46" t="n">
         <v>22000000</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>41640</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -1684,19 +1480,16 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>41699</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
         <v>0.1</v>
@@ -1705,24 +1498,21 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>59</v>
+        <v>484931.5068493151</v>
       </c>
       <c r="G48" t="n">
         <v>484931.5068493151</v>
       </c>
-      <c r="H48" t="n">
-        <v>484931.5068493151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>41760</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>0.1</v>
@@ -1731,24 +1521,21 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G49" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H49" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>41821</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>0.1</v>
@@ -1757,24 +1544,21 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G50" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H50" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>41883</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>0.1</v>
@@ -1783,24 +1567,21 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>62</v>
+        <v>509589.0410958904</v>
       </c>
       <c r="G51" t="n">
         <v>509589.0410958904</v>
       </c>
-      <c r="H51" t="n">
-        <v>509589.0410958904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>41944</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
         <v>0.1</v>
@@ -1809,24 +1590,21 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G52" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H52" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>42005</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
         <v>0.1</v>
@@ -1835,24 +1613,21 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G53" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H53" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>42064</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
         <v>0.1</v>
@@ -1861,24 +1636,21 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>59</v>
+        <v>484931.5068493151</v>
       </c>
       <c r="G54" t="n">
         <v>484931.5068493151</v>
       </c>
-      <c r="H54" t="n">
-        <v>484931.5068493151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>42125</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
         <v>0.1</v>
@@ -1887,24 +1659,21 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G55" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H55" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>42186</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
         <v>0.1</v>
@@ -1913,24 +1682,21 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G56" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H56" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>19</v>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>42248</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
         <v>0.1</v>
@@ -1939,24 +1705,21 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>62</v>
+        <v>509589.0410958904</v>
       </c>
       <c r="G57" t="n">
         <v>509589.0410958904</v>
       </c>
-      <c r="H57" t="n">
-        <v>509589.0410958904</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>42309</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
         <v>0.1</v>
@@ -1965,24 +1728,21 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G58" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H58" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>42370</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -1991,24 +1751,21 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G59" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H59" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>42430</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
         <v>0.1</v>
@@ -2017,24 +1774,21 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>60</v>
+        <v>493150.6849315069</v>
       </c>
       <c r="G60" t="n">
         <v>493150.6849315069</v>
       </c>
-      <c r="H60" t="n">
-        <v>493150.6849315069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>42491</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
         <v>0.1</v>
@@ -2043,24 +1797,21 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G61" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H61" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>42552</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
         <v>0.1</v>
@@ -2069,24 +1820,21 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
+        <v>501369.8630136986</v>
+      </c>
+      <c r="G62" t="n">
+        <v>501369.8630136986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="n">
         <v>61</v>
-      </c>
-      <c r="G62" t="n">
-        <v>501369.8630136986</v>
-      </c>
-      <c r="H62" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>42614</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
         <v>0.1</v>
@@ -2095,24 +1843,21 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>62</v>
+        <v>509589.0410958904</v>
       </c>
       <c r="G63" t="n">
         <v>509589.0410958904</v>
       </c>
-      <c r="H63" t="n">
-        <v>509589.0410958904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>0.1</v>
@@ -2121,24 +1866,21 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>246575.3424657534</v>
       </c>
       <c r="G64" t="n">
         <v>246575.3424657534</v>
       </c>
-      <c r="H64" t="n">
-        <v>246575.3424657534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>42675</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
         <v>0.1</v>
@@ -2147,24 +1889,21 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>31</v>
+        <v>254794.5205479452</v>
       </c>
       <c r="G65" t="n">
         <v>254794.5205479452</v>
       </c>
-      <c r="H65" t="n">
-        <v>254794.5205479452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>42736</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
         <v>0.1</v>
@@ -2173,24 +1912,21 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>61</v>
+        <v>501369.8630136986</v>
       </c>
       <c r="G66" t="n">
         <v>501369.8630136986</v>
       </c>
-      <c r="H66" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>42795</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
         <v>0.1</v>
@@ -2199,12 +1935,9 @@
         <v>30000000</v>
       </c>
       <c r="F67" t="n">
-        <v>59</v>
+        <v>484931.5068493151</v>
       </c>
       <c r="G67" t="n">
-        <v>484931.5068493151</v>
-      </c>
-      <c r="H67" t="n">
         <v>30484931.50684932</v>
       </c>
     </row>

--- a/ABSoutput.xlsx
+++ b/ABSoutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,60 @@
   </si>
   <si>
     <t>万信-基础设施建设信托基金023号002</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金031号001</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金046号001</t>
+  </si>
+  <si>
+    <t>万信-磐石024号001</t>
+  </si>
+  <si>
+    <t>万信-磐石025号001</t>
+  </si>
+  <si>
+    <t>万信-磐石026号001</t>
+  </si>
+  <si>
+    <t>万信-磐石027号001</t>
+  </si>
+  <si>
+    <t>万信-磐石028号001</t>
+  </si>
+  <si>
+    <t>万信-磐石030号001</t>
+  </si>
+  <si>
+    <t>万信-磐石035号002</t>
+  </si>
+  <si>
+    <t>万信-磐石036号001</t>
+  </si>
+  <si>
+    <t>万信-磐石037号001</t>
+  </si>
+  <si>
+    <t>万信-磐石040号001</t>
+  </si>
+  <si>
+    <t>万信-磐石041号001</t>
+  </si>
+  <si>
+    <t>万信-磐石042号001</t>
+  </si>
+  <si>
+    <t>万信-磐石043号001</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号001</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号002</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号003</t>
   </si>
 </sst>
 </file>
@@ -395,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42005</v>
+        <v>42076</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -451,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42095</v>
+        <v>42110</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -463,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133298.6301369863</v>
+        <v>50357.26027397261</v>
       </c>
       <c r="G3" t="n">
-        <v>133298.6301369863</v>
+        <v>50357.26027397261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42186</v>
+        <v>42201</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -497,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42278</v>
+        <v>42293</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -520,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42370</v>
+        <v>42385</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -543,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42461</v>
+        <v>42476</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -566,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42567</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -589,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42644</v>
+        <v>42612</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -601,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>136260.8219178082</v>
+        <v>66649.31506849315</v>
       </c>
       <c r="G9" t="n">
-        <v>136260.8219178082</v>
+        <v>66649.31506849315</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -612,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42644</v>
+        <v>42659</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -624,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>69611.50684931508</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69611.50684931508</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -635,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42736</v>
+        <v>42751</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -658,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42826</v>
+        <v>42807</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -667,13 +721,13 @@
         <v>0.102</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5300000</v>
       </c>
       <c r="F12" t="n">
-        <v>133298.6301369863</v>
+        <v>82941.36986301369</v>
       </c>
       <c r="G12" t="n">
-        <v>133298.6301369863</v>
+        <v>5382941.369863014</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,22 +735,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42917</v>
+        <v>42076</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>134779.7260273973</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>134779.7260273973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -704,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43009</v>
+        <v>42088</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>136260.8219178082</v>
+        <v>55535.34246575343</v>
       </c>
       <c r="G14" t="n">
-        <v>136260.8219178082</v>
+        <v>55535.34246575343</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -727,22 +781,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43101</v>
+        <v>42180</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>136260.8219178082</v>
+        <v>425770.9589041096</v>
       </c>
       <c r="G15" t="n">
-        <v>136260.8219178082</v>
+        <v>425770.9589041096</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -750,22 +804,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43191</v>
+        <v>42272</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133298.6301369863</v>
+        <v>425770.9589041096</v>
       </c>
       <c r="G16" t="n">
-        <v>133298.6301369863</v>
+        <v>425770.9589041096</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -773,22 +827,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282</v>
+        <v>42363</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>134779.7260273973</v>
+        <v>421143.0136986302</v>
       </c>
       <c r="G17" t="n">
-        <v>134779.7260273973</v>
+        <v>421143.0136986302</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,22 +850,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43374</v>
+        <v>42454</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>136260.8219178082</v>
+        <v>421143.0136986302</v>
       </c>
       <c r="G18" t="n">
-        <v>136260.8219178082</v>
+        <v>421143.0136986302</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -819,22 +873,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43466</v>
+        <v>42546</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>136260.8219178082</v>
+        <v>425770.9589041096</v>
       </c>
       <c r="G19" t="n">
-        <v>136260.8219178082</v>
+        <v>425770.9589041096</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -842,22 +896,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43556</v>
+        <v>42612</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>133298.6301369863</v>
+        <v>305444.3835616438</v>
       </c>
       <c r="G20" t="n">
-        <v>133298.6301369863</v>
+        <v>305444.3835616438</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -865,22 +919,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43647</v>
+        <v>42638</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="E21" t="n">
-        <v>5300000</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>134779.7260273973</v>
+        <v>120326.5753424658</v>
       </c>
       <c r="G21" t="n">
-        <v>5434779.726027397</v>
+        <v>120326.5753424658</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>41640</v>
+        <v>42729</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -900,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>421143.0136986302</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>421143.0136986302</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>41821</v>
+        <v>42807</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -920,13 +974,13 @@
         <v>0.103</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16400000</v>
       </c>
       <c r="F23" t="n">
-        <v>837658.0821917808</v>
+        <v>360979.7260273973</v>
       </c>
       <c r="G23" t="n">
-        <v>837658.0821917808</v>
+        <v>16760979.7260274</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,22 +988,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>42005</v>
+        <v>41978</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>851541.9178082192</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>851541.9178082192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,22 +1011,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>42186</v>
+        <v>42063</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>837658.0821917808</v>
+        <v>465753.4246575342</v>
       </c>
       <c r="G25" t="n">
-        <v>837658.0821917808</v>
+        <v>465753.4246575342</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,22 +1034,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>42370</v>
+        <v>42152</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>851541.9178082192</v>
+        <v>487671.2328767123</v>
       </c>
       <c r="G26" t="n">
-        <v>851541.9178082192</v>
+        <v>487671.2328767123</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,22 +1057,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>42552</v>
+        <v>42244</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>842286.0273972603</v>
+        <v>504109.5890410959</v>
       </c>
       <c r="G27" t="n">
-        <v>842286.0273972603</v>
+        <v>504109.5890410959</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,22 +1080,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42644</v>
+        <v>42336</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>425770.9589041096</v>
+        <v>504109.5890410959</v>
       </c>
       <c r="G28" t="n">
-        <v>425770.9589041096</v>
+        <v>504109.5890410959</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,22 +1103,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>42736</v>
+        <v>42428</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>425770.9589041096</v>
+        <v>504109.5890410959</v>
       </c>
       <c r="G29" t="n">
-        <v>425770.9589041096</v>
+        <v>504109.5890410959</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,22 +1126,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>42917</v>
+        <v>42518</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>837658.0821917808</v>
+        <v>493150.6849315069</v>
       </c>
       <c r="G30" t="n">
-        <v>837658.0821917808</v>
+        <v>493150.6849315069</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,22 +1149,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43101</v>
+        <v>42610</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>851541.9178082192</v>
+        <v>504109.5890410959</v>
       </c>
       <c r="G31" t="n">
-        <v>851541.9178082192</v>
+        <v>504109.5890410959</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,22 +1172,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>42612</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="E32" t="n">
-        <v>16400000</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>837658.0821917808</v>
+        <v>10958.90410958904</v>
       </c>
       <c r="G32" t="n">
-        <v>17237658.08219178</v>
+        <v>10958.90410958904</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>40179</v>
+        <v>42702</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1153,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>493150.6849315069</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>493150.6849315069</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,7 +1218,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>40544</v>
+        <v>42709</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1173,13 +1227,13 @@
         <v>0.1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F34" t="n">
-        <v>2000000</v>
+        <v>38356.16438356164</v>
       </c>
       <c r="G34" t="n">
-        <v>2000000</v>
+        <v>20038356.16438356</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,10 +1241,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>40909</v>
+        <v>41985</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>0.1</v>
@@ -1199,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>41275</v>
+        <v>42063</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>0.1</v>
@@ -1222,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2005479.452054794</v>
+        <v>641095.8904109589</v>
       </c>
       <c r="G36" t="n">
-        <v>2005479.452054794</v>
+        <v>641095.8904109589</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,10 +1287,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>41640</v>
+        <v>42152</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
         <v>0.1</v>
@@ -1245,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2000000</v>
+        <v>731506.8493150685</v>
       </c>
       <c r="G37" t="n">
-        <v>2000000</v>
+        <v>731506.8493150685</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,10 +1310,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>42005</v>
+        <v>42244</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>0.1</v>
@@ -1268,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
       <c r="G38" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,10 +1333,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>42370</v>
+        <v>42336</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>0.1</v>
@@ -1291,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
       <c r="G39" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,10 +1356,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>42644</v>
+        <v>42428</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>0.1</v>
@@ -1314,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1501369.863013699</v>
+        <v>756164.3835616439</v>
       </c>
       <c r="G40" t="n">
-        <v>1501369.863013699</v>
+        <v>756164.3835616439</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,10 +1379,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>42736</v>
+        <v>42518</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>0.1</v>
@@ -1337,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>504109.5890410959</v>
+        <v>739726.0273972603</v>
       </c>
       <c r="G41" t="n">
-        <v>504109.5890410959</v>
+        <v>739726.0273972603</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,10 +1402,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43101</v>
+        <v>42610</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
         <v>0.1</v>
@@ -1360,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
       <c r="G42" t="n">
-        <v>2000000</v>
+        <v>756164.3835616439</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,10 +1425,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43466</v>
+        <v>42612</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
         <v>0.1</v>
@@ -1383,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2000000</v>
+        <v>16438.35616438356</v>
       </c>
       <c r="G43" t="n">
-        <v>2000000</v>
+        <v>16438.35616438356</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,10 +1448,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43831</v>
+        <v>42702</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>0.1</v>
@@ -1406,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2000000</v>
+        <v>739726.0273972603</v>
       </c>
       <c r="G44" t="n">
-        <v>2000000</v>
+        <v>739726.0273972603</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,22 +1471,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44197</v>
+        <v>42716</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
         <v>0.1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="F45" t="n">
-        <v>2005479.452054794</v>
+        <v>115068.4931506849</v>
       </c>
       <c r="G45" t="n">
-        <v>2005479.452054794</v>
+        <v>30115068.49315068</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,22 +1494,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44562</v>
+        <v>42041</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E46" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,22 +1517,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>41640</v>
+        <v>42084</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>185547.9452054795</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>185547.9452054795</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,22 +1540,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>41699</v>
+        <v>42176</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>484931.5068493151</v>
+        <v>396986.301369863</v>
       </c>
       <c r="G48" t="n">
-        <v>484931.5068493151</v>
+        <v>396986.301369863</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,22 +1563,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>41760</v>
+        <v>42268</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>501369.8630136986</v>
+        <v>396986.301369863</v>
       </c>
       <c r="G49" t="n">
-        <v>501369.8630136986</v>
+        <v>396986.301369863</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,22 +1586,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>41821</v>
+        <v>42359</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>501369.8630136986</v>
+        <v>392671.2328767123</v>
       </c>
       <c r="G50" t="n">
-        <v>501369.8630136986</v>
+        <v>392671.2328767123</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,22 +1609,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41883</v>
+        <v>42450</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>509589.0410958904</v>
+        <v>392671.2328767123</v>
       </c>
       <c r="G51" t="n">
-        <v>509589.0410958904</v>
+        <v>392671.2328767123</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,22 +1632,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>41944</v>
+        <v>42542</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>501369.8630136986</v>
+        <v>396986.301369863</v>
       </c>
       <c r="G52" t="n">
-        <v>501369.8630136986</v>
+        <v>396986.301369863</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,22 +1655,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>42005</v>
+        <v>42612</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>501369.8630136986</v>
+        <v>302054.794520548</v>
       </c>
       <c r="G53" t="n">
-        <v>501369.8630136986</v>
+        <v>302054.794520548</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,22 +1678,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42064</v>
+        <v>42634</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>484931.5068493151</v>
+        <v>94931.50684931508</v>
       </c>
       <c r="G54" t="n">
-        <v>484931.5068493151</v>
+        <v>94931.50684931508</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,22 +1701,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42125</v>
+        <v>42725</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>501369.8630136986</v>
+        <v>392671.2328767123</v>
       </c>
       <c r="G55" t="n">
-        <v>501369.8630136986</v>
+        <v>392671.2328767123</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,22 +1724,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>42186</v>
+        <v>42772</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F56" t="n">
-        <v>501369.8630136986</v>
+        <v>202808.2191780822</v>
       </c>
       <c r="G56" t="n">
-        <v>501369.8630136986</v>
+        <v>15202808.21917808</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,10 +1747,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>42248</v>
+        <v>42180</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>0.1</v>
@@ -1705,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>509589.0410958904</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>509589.0410958904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>42309</v>
+        <v>42214</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
         <v>0.1</v>
@@ -1728,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>501369.8630136986</v>
+        <v>66136.98630136986</v>
       </c>
       <c r="G58" t="n">
-        <v>501369.8630136986</v>
+        <v>66136.98630136986</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,10 +1793,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>42370</v>
+        <v>42306</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -1751,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>501369.8630136986</v>
+        <v>178958.904109589</v>
       </c>
       <c r="G59" t="n">
-        <v>501369.8630136986</v>
+        <v>178958.904109589</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,10 +1816,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>42430</v>
+        <v>42398</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
         <v>0.1</v>
@@ -1774,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>493150.6849315069</v>
+        <v>178958.904109589</v>
       </c>
       <c r="G60" t="n">
-        <v>493150.6849315069</v>
+        <v>178958.904109589</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,10 +1839,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>42491</v>
+        <v>42489</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
         <v>0.1</v>
@@ -1797,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>501369.8630136986</v>
+        <v>177013.698630137</v>
       </c>
       <c r="G61" t="n">
-        <v>501369.8630136986</v>
+        <v>177013.698630137</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,10 +1862,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>42552</v>
+        <v>42580</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>0.1</v>
@@ -1820,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>501369.8630136986</v>
+        <v>177013.698630137</v>
       </c>
       <c r="G62" t="n">
-        <v>501369.8630136986</v>
+        <v>177013.698630137</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,10 +1885,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>42614</v>
+        <v>42612</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
         <v>0.1</v>
@@ -1843,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>509589.0410958904</v>
+        <v>62246.57534246575</v>
       </c>
       <c r="G63" t="n">
-        <v>509589.0410958904</v>
+        <v>62246.57534246575</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,10 +1908,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>42644</v>
+        <v>42672</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
         <v>0.1</v>
@@ -1866,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>246575.3424657534</v>
+        <v>116712.3287671233</v>
       </c>
       <c r="G64" t="n">
-        <v>246575.3424657534</v>
+        <v>116712.3287671233</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,22 +1931,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>42675</v>
+        <v>42729</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
         <v>0.1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>7100000</v>
       </c>
       <c r="F65" t="n">
-        <v>254794.5205479452</v>
+        <v>110876.7123287671</v>
       </c>
       <c r="G65" t="n">
-        <v>254794.5205479452</v>
+        <v>7210876.712328767</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,22 +1954,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>42736</v>
+        <v>42335</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>501369.8630136986</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>501369.8630136986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,22 +1977,1655 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>42795</v>
+        <v>42612</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>409808.2191780822</v>
+      </c>
+      <c r="G67" t="n">
+        <v>409808.2191780822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>42701</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>131671.2328767123</v>
+      </c>
+      <c r="G68" t="n">
+        <v>131671.2328767123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43066</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="F69" t="n">
+        <v>540000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7740000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>42341</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2182849.315068493</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2182849.315068493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>42707</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>765205.4794520548</v>
+      </c>
+      <c r="G72" t="n">
+        <v>765205.4794520548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43072</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E73" t="n">
+        <v>39200000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2940000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>42140000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>42341</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1419965.753424658</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1419965.753424658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>42707</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>497773.9726027397</v>
+      </c>
+      <c r="G76" t="n">
+        <v>497773.9726027397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>43072</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E77" t="n">
+        <v>25500000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1912500</v>
+      </c>
+      <c r="G77" t="n">
+        <v>27412500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>42342</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1664383.561643836</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1664383.561643836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>42708</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>591780.8219178083</v>
+      </c>
+      <c r="G80" t="n">
+        <v>591780.8219178083</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43073</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E81" t="n">
         <v>30000000</v>
       </c>
-      <c r="F67" t="n">
-        <v>484931.5068493151</v>
-      </c>
-      <c r="G67" t="n">
-        <v>30484931.50684932</v>
+      <c r="F81" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>32250000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>42356</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1189828.767123288</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1189828.767123288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>456636.9863013698</v>
+      </c>
+      <c r="G84" t="n">
+        <v>456636.9863013698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>42906</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1890863.01369863</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1890863.01369863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>43087</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E86" t="n">
+        <v>31300000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1164102.739726027</v>
+      </c>
+      <c r="G86" t="n">
+        <v>32464102.73972603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>42349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>42359</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>55890.41095890411</v>
+      </c>
+      <c r="G88" t="n">
+        <v>55890.41095890411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1414027.397260274</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1414027.397260274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>42715</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>575671.2328767123</v>
+      </c>
+      <c r="G90" t="n">
+        <v>575671.2328767123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43080</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E91" t="n">
+        <v>27200000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>29240000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>42356</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>504986.301369863</v>
+      </c>
+      <c r="G93" t="n">
+        <v>504986.301369863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>42633</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>41424.65753424657</v>
+      </c>
+      <c r="G94" t="n">
+        <v>41424.65753424657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>42904</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F95" t="n">
+        <v>534575.3424657534</v>
+      </c>
+      <c r="G95" t="n">
+        <v>10534575.34246575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>42361</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1309326.02739726</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1309326.02739726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>42724</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>584241.0958904109</v>
+      </c>
+      <c r="G98" t="n">
+        <v>584241.0958904109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>42909</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E99" t="n">
+        <v>23800000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>965041.0958904109</v>
+      </c>
+      <c r="G99" t="n">
+        <v>24765041.09589041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>42374</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1169525.479452055</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1169525.479452055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>42740</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>628988.493150685</v>
+      </c>
+      <c r="G102" t="n">
+        <v>628988.493150685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E103" t="n">
+        <v>23600000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1793600</v>
+      </c>
+      <c r="G103" t="n">
+        <v>25393600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>42381</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>493150.6849315069</v>
+      </c>
+      <c r="G105" t="n">
+        <v>493150.6849315069</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>218835.6164383562</v>
+      </c>
+      <c r="G106" t="n">
+        <v>218835.6164383562</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>42906</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>906164.3835616439</v>
+      </c>
+      <c r="G107" t="n">
+        <v>906164.3835616439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>634931.506849315</v>
+      </c>
+      <c r="G108" t="n">
+        <v>15634931.50684932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>42390</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1755563.835616438</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1755563.835616438</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>42756</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1138744.109589041</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1138744.109589041</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>43121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E112" t="n">
+        <v>35200000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2886400</v>
+      </c>
+      <c r="G112" t="n">
+        <v>38086400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>42402</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1749041.095890411</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1749041.095890411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>42768</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1299287.671232877</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1299287.671232877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>43133</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E116" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3040000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>43040000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>42396</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2248767.123287671</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2248767.123287671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>42762</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1561643.835616438</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1561643.835616438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>43127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E120" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>53800000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1606684.931506849</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1606684.931506849</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>42308</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1633315.068493151</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1633315.068493151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>42490</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1615561.643835617</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1615561.643835617</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1082958.904109589</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1082958.904109589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>550356.1643835617</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30550356.16438356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>41950</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>42131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2677808.219178082</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2677808.219178082</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2722191.780821918</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2722191.780821918</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>42497</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2692602.739726027</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2692602.739726027</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1701369.863013699</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1701369.863013699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E132" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1020821.917808219</v>
+      </c>
+      <c r="G132" t="n">
+        <v>51020821.91780822</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>41978</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>42160</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>360808.7671232877</v>
+      </c>
+      <c r="G134" t="n">
+        <v>360808.7671232877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>42343</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>362791.2328767123</v>
+      </c>
+      <c r="G135" t="n">
+        <v>362791.2328767123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>42526</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>362791.2328767123</v>
+      </c>
+      <c r="G136" t="n">
+        <v>362791.2328767123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>170492.0547945205</v>
+      </c>
+      <c r="G137" t="n">
+        <v>170492.0547945205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6700000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>192299.1780821918</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6892299.178082191</v>
       </c>
     </row>
   </sheetData>
